--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.327880333333333</v>
+        <v>14.218145</v>
       </c>
       <c r="H2">
-        <v>27.983641</v>
+        <v>42.654435</v>
       </c>
       <c r="I2">
-        <v>0.2334346564853682</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="J2">
-        <v>0.2334346564853683</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.891565</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N2">
-        <v>8.674695</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q2">
-        <v>26.972172296055</v>
+        <v>37.18575728246667</v>
       </c>
       <c r="R2">
-        <v>242.749550664495</v>
+        <v>334.6718155422</v>
       </c>
       <c r="S2">
-        <v>0.005988473652830137</v>
+        <v>0.007286748347146818</v>
       </c>
       <c r="T2">
-        <v>0.005988473652830138</v>
+        <v>0.007286748347146819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.327880333333333</v>
+        <v>14.218145</v>
       </c>
       <c r="H3">
-        <v>27.983641</v>
+        <v>42.654435</v>
       </c>
       <c r="I3">
-        <v>0.2334346564853682</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="J3">
-        <v>0.2334346564853683</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9708367737425379</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P3">
-        <v>0.970836773742538</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q3">
-        <v>1020.731068356165</v>
+        <v>1555.862834563902</v>
       </c>
       <c r="R3">
-        <v>9186.579615205488</v>
+        <v>14002.76551107511</v>
       </c>
       <c r="S3">
-        <v>0.2266269487819525</v>
+        <v>0.3048796573383549</v>
       </c>
       <c r="T3">
-        <v>0.2266269487819526</v>
+        <v>0.3048796573383549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.327880333333333</v>
+        <v>14.218145</v>
       </c>
       <c r="H4">
-        <v>27.983641</v>
+        <v>42.654435</v>
       </c>
       <c r="I4">
-        <v>0.2334346564853682</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="J4">
-        <v>0.2334346564853683</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3291073333333334</v>
+        <v>0.110226</v>
       </c>
       <c r="N4">
-        <v>0.987322</v>
+        <v>0.330678</v>
       </c>
       <c r="O4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q4">
-        <v>3.069873822155778</v>
+        <v>1.56720925077</v>
       </c>
       <c r="R4">
-        <v>27.628864399402</v>
+        <v>14.10488325693</v>
       </c>
       <c r="S4">
-        <v>0.000681586128833297</v>
+        <v>0.0003071030483777734</v>
       </c>
       <c r="T4">
-        <v>0.0006815861288332971</v>
+        <v>0.0003071030483777734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.327880333333333</v>
+        <v>14.218145</v>
       </c>
       <c r="H5">
-        <v>27.983641</v>
+        <v>42.654435</v>
       </c>
       <c r="I5">
-        <v>0.2334346564853682</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="J5">
-        <v>0.2334346564853683</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06646400000000001</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N5">
-        <v>0.199392</v>
+        <v>0.439172</v>
       </c>
       <c r="O5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q5">
-        <v>0.6199682384746668</v>
+        <v>2.081403725313333</v>
       </c>
       <c r="R5">
-        <v>5.579714146272</v>
+        <v>18.73263352782</v>
       </c>
       <c r="S5">
-        <v>0.0001376479217523045</v>
+        <v>0.0004078622102533688</v>
       </c>
       <c r="T5">
-        <v>0.0001376479217523045</v>
+        <v>0.0004078622102533689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.038387</v>
+        <v>14.218145</v>
       </c>
       <c r="H6">
-        <v>21.115161</v>
+        <v>42.654435</v>
       </c>
       <c r="I6">
-        <v>0.1761389933021312</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="J6">
-        <v>0.1761389933021313</v>
+        <v>0.3129652443512089</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.891565</v>
+        <v>0.030104</v>
       </c>
       <c r="N6">
-        <v>8.674695</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q6">
-        <v>20.351953505655</v>
+        <v>0.4280230370799999</v>
       </c>
       <c r="R6">
-        <v>183.167581550895</v>
+        <v>3.85220733372</v>
       </c>
       <c r="S6">
-        <v>0.004518625196905809</v>
+        <v>8.387340707604819E-05</v>
       </c>
       <c r="T6">
-        <v>0.004518625196905809</v>
+        <v>8.387340707604822E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>21.115161</v>
       </c>
       <c r="I7">
-        <v>0.1761389933021312</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="J7">
-        <v>0.1761389933021313</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.4279763333333</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N7">
-        <v>328.283929</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O7">
-        <v>0.9708367737425379</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P7">
-        <v>0.970836773742538</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q7">
-        <v>770.196446060841</v>
+        <v>18.40800966948</v>
       </c>
       <c r="R7">
-        <v>6931.768014547569</v>
+        <v>165.67208702532</v>
       </c>
       <c r="S7">
-        <v>0.1710022119876996</v>
+        <v>0.003607148108197634</v>
       </c>
       <c r="T7">
-        <v>0.1710022119876996</v>
+        <v>0.003607148108197635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>21.115161</v>
       </c>
       <c r="I8">
-        <v>0.1761389933021312</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="J8">
-        <v>0.1761389933021313</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3291073333333334</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N8">
-        <v>0.987322</v>
+        <v>328.283929</v>
       </c>
       <c r="O8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q8">
-        <v>2.316384776538</v>
+        <v>770.196446060841</v>
       </c>
       <c r="R8">
-        <v>20.847462988842</v>
+        <v>6931.768014547569</v>
       </c>
       <c r="S8">
-        <v>0.0005142933632432538</v>
+        <v>0.1509241196214226</v>
       </c>
       <c r="T8">
-        <v>0.0005142933632432539</v>
+        <v>0.1509241196214226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>21.115161</v>
       </c>
       <c r="I9">
-        <v>0.1761389933021312</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="J9">
-        <v>0.1761389933021313</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06646400000000001</v>
+        <v>0.110226</v>
       </c>
       <c r="N9">
-        <v>0.199392</v>
+        <v>0.330678</v>
       </c>
       <c r="O9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q9">
-        <v>0.4677993535680001</v>
+        <v>0.775813245462</v>
       </c>
       <c r="R9">
-        <v>4.210194182112001</v>
+        <v>6.982319209158001</v>
       </c>
       <c r="S9">
-        <v>0.0001038627542825936</v>
+        <v>0.0001520247615538097</v>
       </c>
       <c r="T9">
-        <v>0.0001038627542825936</v>
+        <v>0.0001520247615538097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.440503</v>
+        <v>7.038387</v>
       </c>
       <c r="H10">
-        <v>16.321509</v>
+        <v>21.115161</v>
       </c>
       <c r="I10">
-        <v>0.1361511837125786</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="J10">
-        <v>0.1361511837125786</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.891565</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N10">
-        <v>8.674695</v>
+        <v>0.439172</v>
       </c>
       <c r="O10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q10">
-        <v>15.731568057195</v>
+        <v>1.030354165188</v>
       </c>
       <c r="R10">
-        <v>141.584112514755</v>
+        <v>9.273187486692001</v>
       </c>
       <c r="S10">
-        <v>0.003492788040731724</v>
+        <v>0.0002019034183740971</v>
       </c>
       <c r="T10">
-        <v>0.003492788040731725</v>
+        <v>0.0002019034183740972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.440503</v>
+        <v>7.038387</v>
       </c>
       <c r="H11">
-        <v>16.321509</v>
+        <v>21.115161</v>
       </c>
       <c r="I11">
-        <v>0.1361511837125786</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="J11">
-        <v>0.1361511837125786</v>
+        <v>0.1549267156364893</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>109.4279763333333</v>
+        <v>0.030104</v>
       </c>
       <c r="N11">
-        <v>328.283929</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O11">
-        <v>0.9708367737425379</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P11">
-        <v>0.970836773742538</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q11">
-        <v>595.343233525429</v>
+        <v>0.211883602248</v>
       </c>
       <c r="R11">
-        <v>5358.08910172886</v>
+        <v>1.906952420232</v>
       </c>
       <c r="S11">
-        <v>0.1321805759367473</v>
+        <v>4.151972694115622E-05</v>
       </c>
       <c r="T11">
-        <v>0.1321805759367474</v>
+        <v>4.151972694115624E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.440503</v>
+        <v>5.558842333333334</v>
       </c>
       <c r="H12">
-        <v>16.321509</v>
+        <v>16.676527</v>
       </c>
       <c r="I12">
-        <v>0.1361511837125786</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="J12">
-        <v>0.1361511837125786</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3291073333333334</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N12">
-        <v>0.987322</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q12">
-        <v>1.790509434322</v>
+        <v>14.53844800280445</v>
       </c>
       <c r="R12">
-        <v>16.114584908898</v>
+        <v>130.84603202524</v>
       </c>
       <c r="S12">
-        <v>0.0003975363368915366</v>
+        <v>0.002848886770001743</v>
       </c>
       <c r="T12">
-        <v>0.0003975363368915367</v>
+        <v>0.002848886770001743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.440503</v>
+        <v>5.558842333333334</v>
       </c>
       <c r="H13">
-        <v>16.321509</v>
+        <v>16.676527</v>
       </c>
       <c r="I13">
-        <v>0.1361511837125786</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="J13">
-        <v>0.1361511837125786</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06646400000000001</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N13">
-        <v>0.199392</v>
+        <v>328.283929</v>
       </c>
       <c r="O13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q13">
-        <v>0.361597591392</v>
+        <v>608.2928672927314</v>
       </c>
       <c r="R13">
-        <v>3.254378322528</v>
+        <v>5474.635805634583</v>
       </c>
       <c r="S13">
-        <v>8.028339820795774E-05</v>
+        <v>0.1191982460289024</v>
       </c>
       <c r="T13">
-        <v>8.028339820795775E-05</v>
+        <v>0.1191982460289024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.82502566666667</v>
+        <v>5.558842333333334</v>
       </c>
       <c r="H14">
-        <v>41.475077</v>
+        <v>16.676527</v>
       </c>
       <c r="I14">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="J14">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.891565</v>
+        <v>0.110226</v>
       </c>
       <c r="N14">
-        <v>8.674695</v>
+        <v>0.330678</v>
       </c>
       <c r="O14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q14">
-        <v>39.975960341835</v>
+        <v>0.612728955034</v>
       </c>
       <c r="R14">
-        <v>359.783643076515</v>
+        <v>5.514560595306</v>
       </c>
       <c r="S14">
-        <v>0.008875628652597466</v>
+        <v>0.0001200675211863489</v>
       </c>
       <c r="T14">
-        <v>0.008875628652597467</v>
+        <v>0.000120067521186349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.82502566666667</v>
+        <v>5.558842333333334</v>
       </c>
       <c r="H15">
-        <v>41.475077</v>
+        <v>16.676527</v>
       </c>
       <c r="I15">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="J15">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.4279763333333</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N15">
-        <v>328.283929</v>
+        <v>0.439172</v>
       </c>
       <c r="O15">
-        <v>0.9708367737425379</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P15">
-        <v>0.970836773742538</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q15">
-        <v>1512.844581459726</v>
+        <v>0.8137626350715557</v>
       </c>
       <c r="R15">
-        <v>13615.60123313753</v>
+        <v>7.323863715644</v>
       </c>
       <c r="S15">
-        <v>0.3358880336910602</v>
+        <v>0.0001594611477463007</v>
       </c>
       <c r="T15">
-        <v>0.3358880336910604</v>
+        <v>0.0001594611477463008</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.82502566666667</v>
+        <v>5.558842333333334</v>
       </c>
       <c r="H16">
-        <v>41.475077</v>
+        <v>16.676527</v>
       </c>
       <c r="I16">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="J16">
-        <v>0.3459778644315512</v>
+        <v>0.1223594533015039</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3291073333333334</v>
+        <v>0.030104</v>
       </c>
       <c r="N16">
-        <v>0.987322</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q16">
-        <v>4.549917330421556</v>
+        <v>0.1673433896026666</v>
       </c>
       <c r="R16">
-        <v>40.949255973794</v>
+        <v>1.506090506424</v>
       </c>
       <c r="S16">
-        <v>0.001010191532098804</v>
+        <v>3.279183366713704E-05</v>
       </c>
       <c r="T16">
-        <v>0.001010191532098804</v>
+        <v>3.279183366713705E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.82502566666667</v>
+        <v>12.96216633333333</v>
       </c>
       <c r="H17">
-        <v>41.475077</v>
+        <v>38.886499</v>
       </c>
       <c r="I17">
-        <v>0.3459778644315512</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="J17">
-        <v>0.3459778644315512</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06646400000000001</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N17">
-        <v>0.199392</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q17">
-        <v>0.9188665059093335</v>
+        <v>33.90090417043112</v>
       </c>
       <c r="R17">
-        <v>8.269798553184</v>
+        <v>305.10813753388</v>
       </c>
       <c r="S17">
-        <v>0.0002040105557946088</v>
+        <v>0.006643063782572115</v>
       </c>
       <c r="T17">
-        <v>0.0002040105557946088</v>
+        <v>0.006643063782572116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.327482000000001</v>
+        <v>12.96216633333333</v>
       </c>
       <c r="H18">
-        <v>12.982446</v>
+        <v>38.886499</v>
       </c>
       <c r="I18">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="J18">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.891565</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N18">
-        <v>8.674695</v>
+        <v>328.283929</v>
       </c>
       <c r="O18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q18">
-        <v>12.51319548933</v>
+        <v>1418.42363075273</v>
       </c>
       <c r="R18">
-        <v>112.61875940397</v>
+        <v>12765.81267677457</v>
       </c>
       <c r="S18">
-        <v>0.002778231603967833</v>
+        <v>0.277947709076636</v>
       </c>
       <c r="T18">
-        <v>0.002778231603967834</v>
+        <v>0.2779477090766361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.327482000000001</v>
+        <v>12.96216633333333</v>
       </c>
       <c r="H19">
-        <v>12.982446</v>
+        <v>38.886499</v>
       </c>
       <c r="I19">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="J19">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>109.4279763333333</v>
+        <v>0.110226</v>
       </c>
       <c r="N19">
-        <v>328.283929</v>
+        <v>0.330678</v>
       </c>
       <c r="O19">
-        <v>0.9708367737425379</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P19">
-        <v>0.970836773742538</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q19">
-        <v>473.5475978789261</v>
+        <v>1.428767746258</v>
       </c>
       <c r="R19">
-        <v>4261.928380910334</v>
+        <v>12.858909716322</v>
       </c>
       <c r="S19">
-        <v>0.1051390033450781</v>
+        <v>0.0002799746939243067</v>
       </c>
       <c r="T19">
-        <v>0.1051390033450781</v>
+        <v>0.0002799746939243068</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.327482000000001</v>
+        <v>12.96216633333333</v>
       </c>
       <c r="H20">
-        <v>12.982446</v>
+        <v>38.886499</v>
       </c>
       <c r="I20">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="J20">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3291073333333334</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N20">
-        <v>0.987322</v>
+        <v>0.439172</v>
       </c>
       <c r="O20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q20">
-        <v>1.424206061068</v>
+        <v>1.897540170980889</v>
       </c>
       <c r="R20">
-        <v>12.817854549612</v>
+        <v>17.077861538828</v>
       </c>
       <c r="S20">
-        <v>0.000316208141461196</v>
+        <v>0.0003718331618073341</v>
       </c>
       <c r="T20">
-        <v>0.000316208141461196</v>
+        <v>0.0003718331618073342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.327482000000001</v>
+        <v>12.96216633333333</v>
       </c>
       <c r="H21">
-        <v>12.982446</v>
+        <v>38.886499</v>
       </c>
       <c r="I21">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="J21">
-        <v>0.1082973020683707</v>
+        <v>0.2853190450535341</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.030104</v>
+      </c>
+      <c r="N21">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q21">
+        <v>0.3902130552986666</v>
+      </c>
+      <c r="R21">
+        <v>3.511917497688</v>
+      </c>
+      <c r="S21">
+        <v>7.646433859431831E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.646433859431832E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.652887333333333</v>
+      </c>
+      <c r="H22">
+        <v>16.958662</v>
+      </c>
+      <c r="I22">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="J22">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.615373333333334</v>
+      </c>
+      <c r="N22">
+        <v>7.846120000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="P22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="Q22">
+        <v>14.78441078793778</v>
+      </c>
+      <c r="R22">
+        <v>133.05969709144</v>
+      </c>
+      <c r="S22">
+        <v>0.002897084495394712</v>
+      </c>
+      <c r="T22">
+        <v>0.002897084495394713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.652887333333333</v>
+      </c>
+      <c r="H23">
+        <v>16.958662</v>
+      </c>
+      <c r="I23">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="J23">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N23">
+        <v>328.283929</v>
+      </c>
+      <c r="O23">
+        <v>0.9741645848579265</v>
+      </c>
+      <c r="P23">
+        <v>0.9741645848579266</v>
+      </c>
+      <c r="Q23">
+        <v>618.5840213269997</v>
+      </c>
+      <c r="R23">
+        <v>5567.256191942998</v>
+      </c>
+      <c r="S23">
+        <v>0.1212148527926107</v>
+      </c>
+      <c r="T23">
+        <v>0.1212148527926107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.652887333333333</v>
+      </c>
+      <c r="H24">
+        <v>16.958662</v>
+      </c>
+      <c r="I24">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="J24">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M21">
-        <v>0.06646400000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.199392</v>
-      </c>
-      <c r="O21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="P21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="Q21">
-        <v>0.2876217636480001</v>
-      </c>
-      <c r="R21">
-        <v>2.588595872832</v>
-      </c>
-      <c r="S21">
-        <v>6.385897786358531E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.385897786358532E-05</v>
+      <c r="M24">
+        <v>0.110226</v>
+      </c>
+      <c r="N24">
+        <v>0.330678</v>
+      </c>
+      <c r="O24">
+        <v>0.0009812688594684432</v>
+      </c>
+      <c r="P24">
+        <v>0.0009812688594684434</v>
+      </c>
+      <c r="Q24">
+        <v>0.623095159204</v>
+      </c>
+      <c r="R24">
+        <v>5.607856432836001</v>
+      </c>
+      <c r="S24">
+        <v>0.0001220988344262046</v>
+      </c>
+      <c r="T24">
+        <v>0.0001220988344262047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.652887333333333</v>
+      </c>
+      <c r="H25">
+        <v>16.958662</v>
+      </c>
+      <c r="I25">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="J25">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1463906666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.439172</v>
+      </c>
+      <c r="O25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="P25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="Q25">
+        <v>0.8275299453182222</v>
+      </c>
+      <c r="R25">
+        <v>7.447769507864</v>
+      </c>
+      <c r="S25">
+        <v>0.0001621589259419288</v>
+      </c>
+      <c r="T25">
+        <v>0.0001621589259419288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.652887333333333</v>
+      </c>
+      <c r="H26">
+        <v>16.958662</v>
+      </c>
+      <c r="I26">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="J26">
+        <v>0.124429541657264</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.030104</v>
+      </c>
+      <c r="N26">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q26">
+        <v>0.1701745202826666</v>
+      </c>
+      <c r="R26">
+        <v>1.531570682544</v>
+      </c>
+      <c r="S26">
+        <v>3.334660889052005E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.334660889052006E-05</v>
       </c>
     </row>
   </sheetData>
